--- a/data/pca/factorExposure/factorExposure_2009-04-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01733988315436693</v>
+        <v>0.01669170091933195</v>
       </c>
       <c r="C2">
-        <v>-0.002078342600834741</v>
+        <v>-0.001326467618290822</v>
       </c>
       <c r="D2">
-        <v>0.007642354456502183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008764402308630549</v>
+      </c>
+      <c r="E2">
+        <v>0.0003604535146595771</v>
+      </c>
+      <c r="F2">
+        <v>0.0198685117724518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08748732853411977</v>
+        <v>0.09050524269788254</v>
       </c>
       <c r="C4">
-        <v>-0.02065130263475694</v>
+        <v>-0.0159930147183701</v>
       </c>
       <c r="D4">
-        <v>0.08055036331412249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08388534189987179</v>
+      </c>
+      <c r="E4">
+        <v>0.03215964765043689</v>
+      </c>
+      <c r="F4">
+        <v>-0.03597549426319636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0004322048267483953</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>7.454643279871911e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-9.621422068578049e-05</v>
+      </c>
+      <c r="E5">
+        <v>-1.284742080427404e-05</v>
+      </c>
+      <c r="F5">
+        <v>-0.000451142715665181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1567384569592835</v>
+        <v>0.1648584640276441</v>
       </c>
       <c r="C6">
-        <v>-0.03493568294030244</v>
+        <v>-0.03333320938052822</v>
       </c>
       <c r="D6">
-        <v>-0.02909433151204685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.020447288144977</v>
+      </c>
+      <c r="E6">
+        <v>0.01603798130379848</v>
+      </c>
+      <c r="F6">
+        <v>-0.05825116560965324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05778836586507058</v>
+        <v>0.06140344436383658</v>
       </c>
       <c r="C7">
-        <v>-0.002292266851731689</v>
+        <v>0.000893737296749835</v>
       </c>
       <c r="D7">
-        <v>0.04757758794820659</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.052543955846984</v>
+      </c>
+      <c r="E7">
+        <v>0.01953451734774463</v>
+      </c>
+      <c r="F7">
+        <v>-0.04372314933494999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05843898234548613</v>
+        <v>0.05485124323730243</v>
       </c>
       <c r="C8">
-        <v>0.009687956057333528</v>
+        <v>0.01188260489414381</v>
       </c>
       <c r="D8">
-        <v>0.02543206295991941</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03002872603554622</v>
+      </c>
+      <c r="E8">
+        <v>0.01334771602850077</v>
+      </c>
+      <c r="F8">
+        <v>0.03691603787726246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06883249422971388</v>
+        <v>0.07119570396033306</v>
       </c>
       <c r="C9">
-        <v>-0.01665529561713257</v>
+        <v>-0.01173548571281725</v>
       </c>
       <c r="D9">
-        <v>0.08416413590857741</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08777960182563094</v>
+      </c>
+      <c r="E9">
+        <v>0.03052254548613255</v>
+      </c>
+      <c r="F9">
+        <v>-0.05526775085262303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08836508555125872</v>
+        <v>0.08775833067508541</v>
       </c>
       <c r="C10">
-        <v>-0.02037204527791703</v>
+        <v>-0.02378420784422883</v>
       </c>
       <c r="D10">
-        <v>-0.1681368775912188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1585067555535046</v>
+      </c>
+      <c r="E10">
+        <v>-0.03697249127007408</v>
+      </c>
+      <c r="F10">
+        <v>0.0774812877140291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08902361474460385</v>
+        <v>0.08593631554810137</v>
       </c>
       <c r="C11">
-        <v>-0.01796642714466927</v>
+        <v>-0.01254652103443296</v>
       </c>
       <c r="D11">
-        <v>0.1155198753199106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1202067415948169</v>
+      </c>
+      <c r="E11">
+        <v>0.05582830476740198</v>
+      </c>
+      <c r="F11">
+        <v>-0.003843610960120995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09562616247984508</v>
+        <v>0.09002762865391424</v>
       </c>
       <c r="C12">
-        <v>-0.0165359938752927</v>
+        <v>-0.01027598110641529</v>
       </c>
       <c r="D12">
-        <v>0.1228171016784287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1360383473147715</v>
+      </c>
+      <c r="E12">
+        <v>0.05957101617483481</v>
+      </c>
+      <c r="F12">
+        <v>-0.009083280978995682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.0449328634267115</v>
+        <v>0.0453308465411409</v>
       </c>
       <c r="C13">
-        <v>-0.007483950791649239</v>
+        <v>-0.004173575656789166</v>
       </c>
       <c r="D13">
-        <v>0.04929629802462376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05607303098371593</v>
+      </c>
+      <c r="E13">
+        <v>-0.0004993956044949583</v>
+      </c>
+      <c r="F13">
+        <v>-0.006514232956684315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01830876242980359</v>
+        <v>0.0216347267218706</v>
       </c>
       <c r="C14">
-        <v>-0.01477857374126881</v>
+        <v>-0.01369639450618944</v>
       </c>
       <c r="D14">
-        <v>0.03288492542902967</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03352325865705117</v>
+      </c>
+      <c r="E14">
+        <v>0.02232034429373907</v>
+      </c>
+      <c r="F14">
+        <v>-0.01200094206672256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03454294951644728</v>
+        <v>0.0350014942258054</v>
       </c>
       <c r="C15">
-        <v>-0.008548021187494061</v>
+        <v>-0.006582572009919795</v>
       </c>
       <c r="D15">
-        <v>0.04826336763274878</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04839297596667737</v>
+      </c>
+      <c r="E15">
+        <v>0.01169512235473219</v>
+      </c>
+      <c r="F15">
+        <v>-0.02732210988184457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07165789222723666</v>
+        <v>0.06979461045170665</v>
       </c>
       <c r="C16">
-        <v>-0.007344035668102585</v>
+        <v>-0.001832768781977198</v>
       </c>
       <c r="D16">
-        <v>0.1187252877012659</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1306197248458502</v>
+      </c>
+      <c r="E16">
+        <v>0.07015686613550846</v>
+      </c>
+      <c r="F16">
+        <v>-0.006289486771190457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002090007983420775</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0007402911049758178</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001737431112395454</v>
+      </c>
+      <c r="E17">
+        <v>0.004713751627353368</v>
+      </c>
+      <c r="F17">
+        <v>0.003913169445975501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.0275837545894958</v>
+        <v>0.04552275377218783</v>
       </c>
       <c r="C18">
-        <v>0.0005949069445630257</v>
+        <v>0.0004457945883729646</v>
       </c>
       <c r="D18">
-        <v>0.02204338697399733</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01873169394256942</v>
+      </c>
+      <c r="E18">
+        <v>-0.005507890410798722</v>
+      </c>
+      <c r="F18">
+        <v>0.01285721087986151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06319675945131055</v>
+        <v>0.06221015362182734</v>
       </c>
       <c r="C20">
-        <v>-0.006139123604938641</v>
+        <v>-0.002404651917687125</v>
       </c>
       <c r="D20">
-        <v>0.07532468574169698</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07915028098365381</v>
+      </c>
+      <c r="E20">
+        <v>0.06486472192425587</v>
+      </c>
+      <c r="F20">
+        <v>-0.02869160020005358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04080564739546542</v>
+        <v>0.04273495566074186</v>
       </c>
       <c r="C21">
-        <v>-0.01022729897319353</v>
+        <v>-0.007927556603286225</v>
       </c>
       <c r="D21">
-        <v>0.03789250400476064</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03715809179634424</v>
+      </c>
+      <c r="E21">
+        <v>0.000595269076255554</v>
+      </c>
+      <c r="F21">
+        <v>0.02620520018583515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04406584812285317</v>
+        <v>0.04457936809475301</v>
       </c>
       <c r="C22">
-        <v>-0.003147979207944883</v>
+        <v>-0.002255999526717486</v>
       </c>
       <c r="D22">
-        <v>0.002330017291824224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.009459242189786565</v>
+      </c>
+      <c r="E22">
+        <v>0.02941678094325797</v>
+      </c>
+      <c r="F22">
+        <v>0.08659231791979929</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04407437028004682</v>
+        <v>0.04458664068745977</v>
       </c>
       <c r="C23">
-        <v>-0.003150166832103474</v>
+        <v>-0.002258127584061942</v>
       </c>
       <c r="D23">
-        <v>0.002321017086409765</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.009452457499506241</v>
+      </c>
+      <c r="E23">
+        <v>0.0294245603315588</v>
+      </c>
+      <c r="F23">
+        <v>0.08663275086841914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07939551001453789</v>
+        <v>0.07620190815527238</v>
       </c>
       <c r="C24">
-        <v>-0.008276073132608671</v>
+        <v>-0.002892417752573322</v>
       </c>
       <c r="D24">
-        <v>0.1201052578571401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1241852030773612</v>
+      </c>
+      <c r="E24">
+        <v>0.05453805949931603</v>
+      </c>
+      <c r="F24">
+        <v>-0.01767054266044264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08372755643864128</v>
+        <v>0.08059237569439934</v>
       </c>
       <c r="C25">
-        <v>-0.01050231324009917</v>
+        <v>-0.00561690781591166</v>
       </c>
       <c r="D25">
-        <v>0.1074966950021146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1119041910827295</v>
+      </c>
+      <c r="E25">
+        <v>0.04055861934208918</v>
+      </c>
+      <c r="F25">
+        <v>-0.01089091669640439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0572487865451417</v>
+        <v>0.06131755360054332</v>
       </c>
       <c r="C26">
-        <v>-0.01897177272428735</v>
+        <v>-0.01582920884446241</v>
       </c>
       <c r="D26">
-        <v>0.04048575128136837</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04903184295012761</v>
+      </c>
+      <c r="E26">
+        <v>0.02863992406296673</v>
+      </c>
+      <c r="F26">
+        <v>0.0199847712242072</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1414136870243027</v>
+        <v>0.1483003063834116</v>
       </c>
       <c r="C28">
-        <v>-0.02221128198938194</v>
+        <v>-0.02826160344413992</v>
       </c>
       <c r="D28">
-        <v>-0.2598921504946609</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.254854377231855</v>
+      </c>
+      <c r="E28">
+        <v>-0.06176759018803669</v>
+      </c>
+      <c r="F28">
+        <v>-0.005257993471912337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02580350791647594</v>
+        <v>0.0278783204613535</v>
       </c>
       <c r="C29">
-        <v>-0.009925007808477895</v>
+        <v>-0.009201227216060894</v>
       </c>
       <c r="D29">
-        <v>0.0309601719436678</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03095064308998929</v>
+      </c>
+      <c r="E29">
+        <v>0.01664587261845258</v>
+      </c>
+      <c r="F29">
+        <v>0.02602601555138898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05498864899175691</v>
+        <v>0.05285082640386259</v>
       </c>
       <c r="C30">
-        <v>-0.006857626301789614</v>
+        <v>-0.002463215196335252</v>
       </c>
       <c r="D30">
-        <v>0.08217777150327532</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08831002587747823</v>
+      </c>
+      <c r="E30">
+        <v>0.02222425041574001</v>
+      </c>
+      <c r="F30">
+        <v>-0.100049239902724</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05133573879385127</v>
+        <v>0.05163189005423011</v>
       </c>
       <c r="C31">
-        <v>-0.01877561533704039</v>
+        <v>-0.01709654886297127</v>
       </c>
       <c r="D31">
-        <v>0.02414627898456138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0266291707865801</v>
+      </c>
+      <c r="E31">
+        <v>0.02929270240907971</v>
+      </c>
+      <c r="F31">
+        <v>0.01153548902738418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04532907039011057</v>
+        <v>0.05015482034901583</v>
       </c>
       <c r="C32">
-        <v>-0.002080947015230263</v>
+        <v>0.001158294932309612</v>
       </c>
       <c r="D32">
-        <v>0.03249443707875544</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03585416197832037</v>
+      </c>
+      <c r="E32">
+        <v>0.03160815124913411</v>
+      </c>
+      <c r="F32">
+        <v>0.002573571975301711</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08971559447817665</v>
+        <v>0.08990262659855622</v>
       </c>
       <c r="C33">
-        <v>-0.01453015373321494</v>
+        <v>-0.008688865739998476</v>
       </c>
       <c r="D33">
-        <v>0.09302139170558943</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1061631719288859</v>
+      </c>
+      <c r="E33">
+        <v>0.0571288211540532</v>
+      </c>
+      <c r="F33">
+        <v>-0.02320842611083527</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06713415566741342</v>
+        <v>0.06597369492658899</v>
       </c>
       <c r="C34">
-        <v>-0.01618800163444891</v>
+        <v>-0.01125908529706455</v>
       </c>
       <c r="D34">
-        <v>0.1011954887530211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1124625215287206</v>
+      </c>
+      <c r="E34">
+        <v>0.04314729724655023</v>
+      </c>
+      <c r="F34">
+        <v>-0.02925297572711681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.0272145442222286</v>
+        <v>0.02827751183722054</v>
       </c>
       <c r="C35">
-        <v>-0.004986839100941306</v>
+        <v>-0.004412625165117921</v>
       </c>
       <c r="D35">
-        <v>0.00891296686989838</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01171627913683457</v>
+      </c>
+      <c r="E35">
+        <v>0.01777306244174864</v>
+      </c>
+      <c r="F35">
+        <v>0.006983082579600825</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02362400820891735</v>
+        <v>0.02826525696183927</v>
       </c>
       <c r="C36">
-        <v>-0.008614594033591855</v>
+        <v>-0.007496521509716174</v>
       </c>
       <c r="D36">
-        <v>0.03961413713502309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04116747604885042</v>
+      </c>
+      <c r="E36">
+        <v>0.02002046292824952</v>
+      </c>
+      <c r="F36">
+        <v>-0.0143586304864102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.002668380658003268</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0007421112663955989</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003102432594993665</v>
+      </c>
+      <c r="E37">
+        <v>0.0006392264122207497</v>
+      </c>
+      <c r="F37">
+        <v>0.001440214781835773</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.106172717708705</v>
+        <v>0.09609529026898117</v>
       </c>
       <c r="C39">
-        <v>-0.02332881146717005</v>
+        <v>-0.01678435031304278</v>
       </c>
       <c r="D39">
-        <v>0.1539358185396622</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1537801888756471</v>
+      </c>
+      <c r="E39">
+        <v>0.07015980041790464</v>
+      </c>
+      <c r="F39">
+        <v>0.007264964289107003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04279678641656356</v>
+        <v>0.0475591101078152</v>
       </c>
       <c r="C40">
-        <v>-0.01148812234723996</v>
+        <v>-0.009981442626458394</v>
       </c>
       <c r="D40">
-        <v>0.02703631461105806</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03432313524213339</v>
+      </c>
+      <c r="E40">
+        <v>0.001146782972917612</v>
+      </c>
+      <c r="F40">
+        <v>0.0312902486219151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02541669293446125</v>
+        <v>0.02811396161039456</v>
       </c>
       <c r="C41">
-        <v>-0.008224928862041771</v>
+        <v>-0.007681983605571789</v>
       </c>
       <c r="D41">
-        <v>0.009578983714645304</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01079984658770297</v>
+      </c>
+      <c r="E41">
+        <v>0.01168439210493085</v>
+      </c>
+      <c r="F41">
+        <v>0.01385405617098759</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04073442210837267</v>
+        <v>0.03937661691941518</v>
       </c>
       <c r="C43">
-        <v>-0.009021549806194153</v>
+        <v>-0.008144221534088841</v>
       </c>
       <c r="D43">
-        <v>0.02009051868382404</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02143578230789501</v>
+      </c>
+      <c r="E43">
+        <v>0.02695098289319065</v>
+      </c>
+      <c r="F43">
+        <v>0.02805965567052008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06165425787472747</v>
+        <v>0.07262005987281903</v>
       </c>
       <c r="C44">
-        <v>-0.02291214781074587</v>
+        <v>-0.01912729694535199</v>
       </c>
       <c r="D44">
-        <v>0.09148233655619513</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09127665013642029</v>
+      </c>
+      <c r="E44">
+        <v>0.0779770540115325</v>
+      </c>
+      <c r="F44">
+        <v>-0.190083894136311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001274297395135723</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-1.146315902017332e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-7.398988087128878e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0001752032148960814</v>
+      </c>
+      <c r="F45">
+        <v>-9.488151826278498e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02186448872002404</v>
+        <v>0.02487806251658245</v>
       </c>
       <c r="C46">
-        <v>-0.00472397780721376</v>
+        <v>-0.004030279845249728</v>
       </c>
       <c r="D46">
-        <v>0.01345844127179748</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01520158885694974</v>
+      </c>
+      <c r="E46">
+        <v>0.03344732348491534</v>
+      </c>
+      <c r="F46">
+        <v>0.02899754004609233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05418761475451107</v>
+        <v>0.05300683805617264</v>
       </c>
       <c r="C47">
-        <v>-0.007078352751356194</v>
+        <v>-0.005533322420256006</v>
       </c>
       <c r="D47">
-        <v>0.008835273458817844</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01283311298720671</v>
+      </c>
+      <c r="E47">
+        <v>0.02405148459056511</v>
+      </c>
+      <c r="F47">
+        <v>0.04650346219185324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04864370236082093</v>
+        <v>0.05189532820645603</v>
       </c>
       <c r="C48">
-        <v>-0.005936960818354806</v>
+        <v>-0.003303088608838105</v>
       </c>
       <c r="D48">
-        <v>0.05061925610401421</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05332587541557502</v>
+      </c>
+      <c r="E48">
+        <v>-0.001276496124523878</v>
+      </c>
+      <c r="F48">
+        <v>-0.01070564318458062</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1965685237298586</v>
+        <v>0.1990239894152736</v>
       </c>
       <c r="C49">
-        <v>-0.02779176665756286</v>
+        <v>-0.02415650731199587</v>
       </c>
       <c r="D49">
-        <v>-0.009675812166234537</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.003622895186914318</v>
+      </c>
+      <c r="E49">
+        <v>0.02436562258972782</v>
+      </c>
+      <c r="F49">
+        <v>-0.06801738199034052</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04952616759520788</v>
+        <v>0.05222929660909158</v>
       </c>
       <c r="C50">
-        <v>-0.01441769174448603</v>
+        <v>-0.01293851260598097</v>
       </c>
       <c r="D50">
-        <v>0.02474453945344207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02667830704826258</v>
+      </c>
+      <c r="E50">
+        <v>0.03078128667230483</v>
+      </c>
+      <c r="F50">
+        <v>-0.006210613998424101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1528055579602953</v>
+        <v>0.1459791711586698</v>
       </c>
       <c r="C52">
-        <v>-0.02446146328237851</v>
+        <v>-0.02112310124300534</v>
       </c>
       <c r="D52">
-        <v>0.04140315071725362</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04419478991428649</v>
+      </c>
+      <c r="E52">
+        <v>0.03167732138438999</v>
+      </c>
+      <c r="F52">
+        <v>-0.04345553245024504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1753159669795682</v>
+        <v>0.1681828801166732</v>
       </c>
       <c r="C53">
-        <v>-0.02727074895223686</v>
+        <v>-0.02517999354047966</v>
       </c>
       <c r="D53">
-        <v>0.004649644792024673</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.008325194810773833</v>
+      </c>
+      <c r="E53">
+        <v>0.04041592883939651</v>
+      </c>
+      <c r="F53">
+        <v>-0.09629048855770374</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01500635544334804</v>
+        <v>0.01839843777564753</v>
       </c>
       <c r="C54">
-        <v>-0.0122602020977562</v>
+        <v>-0.01135817392323967</v>
       </c>
       <c r="D54">
-        <v>0.02901902940816015</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02867289779092768</v>
+      </c>
+      <c r="E54">
+        <v>0.01936806778697582</v>
+      </c>
+      <c r="F54">
+        <v>0.0075916670474349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1189577394204263</v>
+        <v>0.1168216669274229</v>
       </c>
       <c r="C55">
-        <v>-0.02338912577076296</v>
+        <v>-0.02182925499736157</v>
       </c>
       <c r="D55">
-        <v>0.004113721862364306</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01164652016218002</v>
+      </c>
+      <c r="E55">
+        <v>0.03915802255021674</v>
+      </c>
+      <c r="F55">
+        <v>-0.03358646734010239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.181262291275791</v>
+        <v>0.1752976882957403</v>
       </c>
       <c r="C56">
-        <v>-0.02532994726160852</v>
+        <v>-0.02356406260946986</v>
       </c>
       <c r="D56">
-        <v>-0.004960990303822679</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0003484702845977754</v>
+      </c>
+      <c r="E56">
+        <v>0.04050377482111518</v>
+      </c>
+      <c r="F56">
+        <v>-0.05493109552126192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04589813251906797</v>
+        <v>0.04459278004769931</v>
       </c>
       <c r="C58">
-        <v>-0.004677470330177323</v>
+        <v>-0.0001483245292867458</v>
       </c>
       <c r="D58">
-        <v>0.06824882519785504</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07777846600630037</v>
+      </c>
+      <c r="E58">
+        <v>0.03592116430221973</v>
+      </c>
+      <c r="F58">
+        <v>0.0524451321423169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1650345641177246</v>
+        <v>0.1713605633267639</v>
       </c>
       <c r="C59">
-        <v>-0.02360182037015184</v>
+        <v>-0.0284734493545859</v>
       </c>
       <c r="D59">
-        <v>-0.2185578235634575</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2148412482966173</v>
+      </c>
+      <c r="E59">
+        <v>-0.05416921363456008</v>
+      </c>
+      <c r="F59">
+        <v>0.06392860309212277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2334484653146043</v>
+        <v>0.2262406897526334</v>
       </c>
       <c r="C60">
-        <v>-0.008726131230379183</v>
+        <v>-0.00366270295590655</v>
       </c>
       <c r="D60">
-        <v>0.03707943361463798</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0382674980151479</v>
+      </c>
+      <c r="E60">
+        <v>-0.006031404646398709</v>
+      </c>
+      <c r="F60">
+        <v>-0.02270774108115675</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.077113338990579</v>
+        <v>0.07242779699948065</v>
       </c>
       <c r="C61">
-        <v>-0.01695600220587963</v>
+        <v>-0.01132841366918955</v>
       </c>
       <c r="D61">
-        <v>0.1137025611634887</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1181663725651489</v>
+      </c>
+      <c r="E61">
+        <v>0.04576136466428379</v>
+      </c>
+      <c r="F61">
+        <v>0.01400824523625564</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1723240393261263</v>
+        <v>0.1679562152903758</v>
       </c>
       <c r="C62">
-        <v>-0.02824522734312577</v>
+        <v>-0.02570381527329183</v>
       </c>
       <c r="D62">
-        <v>0.002548078255315783</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.009872268262346976</v>
+      </c>
+      <c r="E62">
+        <v>0.04252626313968958</v>
+      </c>
+      <c r="F62">
+        <v>-0.03583257328869367</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0429401159351934</v>
+        <v>0.04731674910326891</v>
       </c>
       <c r="C63">
-        <v>-0.006060459983242502</v>
+        <v>-0.003459126506299193</v>
       </c>
       <c r="D63">
-        <v>0.0555689986119206</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06420048300351205</v>
+      </c>
+      <c r="E63">
+        <v>0.0254188820317406</v>
+      </c>
+      <c r="F63">
+        <v>0.01003498125480576</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1143535447715343</v>
+        <v>0.111496334601103</v>
       </c>
       <c r="C64">
-        <v>-0.01936005137087354</v>
+        <v>-0.0153890157545599</v>
       </c>
       <c r="D64">
-        <v>0.03849178217441334</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04452075105517006</v>
+      </c>
+      <c r="E64">
+        <v>0.03126484668902731</v>
+      </c>
+      <c r="F64">
+        <v>-0.02091527573648716</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1477463700960654</v>
+        <v>0.1552786292168616</v>
       </c>
       <c r="C65">
-        <v>-0.04081386874442224</v>
+        <v>-0.03972783669826608</v>
       </c>
       <c r="D65">
-        <v>-0.0498462103093999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04009201025735283</v>
+      </c>
+      <c r="E65">
+        <v>0.01055172190490157</v>
+      </c>
+      <c r="F65">
+        <v>-0.06136247149315208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1277112744306143</v>
+        <v>0.1153836557808581</v>
       </c>
       <c r="C66">
-        <v>-0.02200102768434233</v>
+        <v>-0.0148745251344785</v>
       </c>
       <c r="D66">
-        <v>0.1379245665810257</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1433103616528189</v>
+      </c>
+      <c r="E66">
+        <v>0.07332682056866441</v>
+      </c>
+      <c r="F66">
+        <v>0.002975334268961329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06242603025835268</v>
+        <v>0.0550362194730625</v>
       </c>
       <c r="C67">
-        <v>-0.006903402236751736</v>
+        <v>-0.004249732825480919</v>
       </c>
       <c r="D67">
-        <v>0.05544308005083626</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0591733960466353</v>
+      </c>
+      <c r="E67">
+        <v>0.02398709526301441</v>
+      </c>
+      <c r="F67">
+        <v>0.07113958472204483</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1131675621005956</v>
+        <v>0.1217916154316685</v>
       </c>
       <c r="C68">
-        <v>-0.0313185933632577</v>
+        <v>-0.03835282855191315</v>
       </c>
       <c r="D68">
-        <v>-0.2612131938906049</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2573764680238408</v>
+      </c>
+      <c r="E68">
+        <v>-0.08617373708544171</v>
+      </c>
+      <c r="F68">
+        <v>-0.0165011323394208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04030294131508528</v>
+        <v>0.03960903762018118</v>
       </c>
       <c r="C69">
-        <v>-0.003493469444137671</v>
+        <v>-0.002364678850176197</v>
       </c>
       <c r="D69">
-        <v>0.01032817721599782</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01105007448156704</v>
+      </c>
+      <c r="E69">
+        <v>0.02976066234654505</v>
+      </c>
+      <c r="F69">
+        <v>0.01848138018471968</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06960905088679767</v>
+        <v>0.06982706281585849</v>
       </c>
       <c r="C70">
-        <v>0.02249063265487208</v>
+        <v>0.02488060994796634</v>
       </c>
       <c r="D70">
-        <v>0.02821131483156022</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.03131556777218382</v>
+      </c>
+      <c r="E70">
+        <v>-0.0390048000639649</v>
+      </c>
+      <c r="F70">
+        <v>0.3302779668974538</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1324163196014827</v>
+        <v>0.1419970869848614</v>
       </c>
       <c r="C71">
-        <v>-0.03648506739811411</v>
+        <v>-0.04352024265385499</v>
       </c>
       <c r="D71">
-        <v>-0.2753375967617447</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2669774331374023</v>
+      </c>
+      <c r="E71">
+        <v>-0.0959378154436739</v>
+      </c>
+      <c r="F71">
+        <v>-0.02167919666646343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1382793889265519</v>
+        <v>0.1441745279485361</v>
       </c>
       <c r="C72">
-        <v>-0.0320908803071638</v>
+        <v>-0.03144248730682354</v>
       </c>
       <c r="D72">
-        <v>0.001110274819316039</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0006638433105930769</v>
+      </c>
+      <c r="E72">
+        <v>0.04333951066061568</v>
+      </c>
+      <c r="F72">
+        <v>-0.03470069579143659</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1985613682256363</v>
+        <v>0.2018032055320047</v>
       </c>
       <c r="C73">
-        <v>-0.02149277105362562</v>
+        <v>-0.01656783352190929</v>
       </c>
       <c r="D73">
-        <v>0.009782838081796091</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01764808780284926</v>
+      </c>
+      <c r="E73">
+        <v>0.06733041651600891</v>
+      </c>
+      <c r="F73">
+        <v>-0.03398982227357196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08865556263633</v>
+        <v>0.08885165583120541</v>
       </c>
       <c r="C74">
-        <v>-0.01628031817433435</v>
+        <v>-0.01465854915024411</v>
       </c>
       <c r="D74">
-        <v>0.01194725724009361</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01709411641751803</v>
+      </c>
+      <c r="E74">
+        <v>0.05003678438888425</v>
+      </c>
+      <c r="F74">
+        <v>-0.05249206381272577</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1312636199536945</v>
+        <v>0.1234874490118129</v>
       </c>
       <c r="C75">
-        <v>-0.03446821347712981</v>
+        <v>-0.03155757481459057</v>
       </c>
       <c r="D75">
-        <v>0.02606903493599431</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03212031682697965</v>
+      </c>
+      <c r="E75">
+        <v>0.06208619688115728</v>
+      </c>
+      <c r="F75">
+        <v>-0.01800341686250658</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08147365060704119</v>
+        <v>0.09323348795994081</v>
       </c>
       <c r="C77">
-        <v>-0.01557215566904424</v>
+        <v>-0.01080393120892067</v>
       </c>
       <c r="D77">
-        <v>0.119121224966187</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1209956606233855</v>
+      </c>
+      <c r="E77">
+        <v>0.04818372256319681</v>
+      </c>
+      <c r="F77">
+        <v>-0.04295329919487827</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.0996524409228321</v>
+        <v>0.1003806364776906</v>
       </c>
       <c r="C78">
-        <v>-0.04568707965768625</v>
+        <v>-0.04133443702134149</v>
       </c>
       <c r="D78">
-        <v>0.109493606086606</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1086104732959034</v>
+      </c>
+      <c r="E78">
+        <v>0.07957695454216647</v>
+      </c>
+      <c r="F78">
+        <v>-0.0419097518628192</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1692782068482559</v>
+        <v>0.1644355917061059</v>
       </c>
       <c r="C79">
-        <v>-0.0316053626843838</v>
+        <v>-0.02886822104091994</v>
       </c>
       <c r="D79">
-        <v>0.01066302054454618</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01745231778179422</v>
+      </c>
+      <c r="E79">
+        <v>0.05090921085083658</v>
+      </c>
+      <c r="F79">
+        <v>-0.01281286802693183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.0808271296964921</v>
+        <v>0.07941985508059081</v>
       </c>
       <c r="C80">
-        <v>-0.004233756446199517</v>
+        <v>-0.001359922617525533</v>
       </c>
       <c r="D80">
-        <v>0.05124527706431166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05117175312312524</v>
+      </c>
+      <c r="E80">
+        <v>0.03584328137027445</v>
+      </c>
+      <c r="F80">
+        <v>0.05960181920181625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.118531977960861</v>
+        <v>0.1127732367080448</v>
       </c>
       <c r="C81">
-        <v>-0.0362771799788127</v>
+        <v>-0.03465376816970096</v>
       </c>
       <c r="D81">
-        <v>0.00667019281635971</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01215424306989926</v>
+      </c>
+      <c r="E81">
+        <v>0.05661071872154354</v>
+      </c>
+      <c r="F81">
+        <v>-0.009605787497312085</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1635147114461148</v>
+        <v>0.1617586269198884</v>
       </c>
       <c r="C82">
-        <v>-0.03097094123354021</v>
+        <v>-0.02962548943604152</v>
       </c>
       <c r="D82">
-        <v>0.006802490282064757</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.005644874531382576</v>
+      </c>
+      <c r="E82">
+        <v>0.03911431309734949</v>
+      </c>
+      <c r="F82">
+        <v>-0.0979188999940393</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05707475085810379</v>
+        <v>0.05238625117741898</v>
       </c>
       <c r="C83">
-        <v>-0.005624289971421102</v>
+        <v>-0.003363382333995922</v>
       </c>
       <c r="D83">
-        <v>0.03873058631142496</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03992561634186931</v>
+      </c>
+      <c r="E83">
+        <v>-0.008317855270928706</v>
+      </c>
+      <c r="F83">
+        <v>0.04056141789491506</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05903213000093432</v>
+        <v>0.05470294116378276</v>
       </c>
       <c r="C84">
-        <v>-0.01420563519304179</v>
+        <v>-0.01112213081294373</v>
       </c>
       <c r="D84">
-        <v>0.07695954670489062</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0777049829398634</v>
+      </c>
+      <c r="E84">
+        <v>0.01758588068379265</v>
+      </c>
+      <c r="F84">
+        <v>-0.002924992831704008</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1401254745511662</v>
+        <v>0.1350277456216523</v>
       </c>
       <c r="C85">
-        <v>-0.03486569725692391</v>
+        <v>-0.0328052969053859</v>
       </c>
       <c r="D85">
-        <v>0.006635509316376429</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01118834802926504</v>
+      </c>
+      <c r="E85">
+        <v>0.04694625394567094</v>
+      </c>
+      <c r="F85">
+        <v>-0.05839447549046504</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08230716665219276</v>
+        <v>0.07853789175657909</v>
       </c>
       <c r="C86">
-        <v>0.005220047683847782</v>
+        <v>0.008431171454635785</v>
       </c>
       <c r="D86">
-        <v>0.02026208165876974</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04830553303344112</v>
+      </c>
+      <c r="E86">
+        <v>0.08871005952557161</v>
+      </c>
+      <c r="F86">
+        <v>0.8284835311480208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09424141682732205</v>
+        <v>0.0912159882330412</v>
       </c>
       <c r="C87">
-        <v>-0.03030948530775508</v>
+        <v>-0.02192542493852267</v>
       </c>
       <c r="D87">
-        <v>0.07293992806905765</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09137481565888605</v>
+      </c>
+      <c r="E87">
+        <v>-0.05909283895617481</v>
+      </c>
+      <c r="F87">
+        <v>-0.07108030235278401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06232382795467979</v>
+        <v>0.06108586429754721</v>
       </c>
       <c r="C88">
-        <v>-0.006871912129851591</v>
+        <v>-0.003838622427680692</v>
       </c>
       <c r="D88">
-        <v>0.05058840383767207</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05095469946845811</v>
+      </c>
+      <c r="E88">
+        <v>0.03132080613352057</v>
+      </c>
+      <c r="F88">
+        <v>-0.0004183377433189903</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.123551664458451</v>
+        <v>0.1304266871208743</v>
       </c>
       <c r="C89">
-        <v>-0.01176947657645722</v>
+        <v>-0.01823692621588243</v>
       </c>
       <c r="D89">
-        <v>-0.2362753440531581</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2394990951186103</v>
+      </c>
+      <c r="E89">
+        <v>-0.0870933270800917</v>
+      </c>
+      <c r="F89">
+        <v>-0.008576332106079724</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1434151127622769</v>
+        <v>0.1571200931946976</v>
       </c>
       <c r="C90">
-        <v>-0.03271874049081485</v>
+        <v>-0.04048291825972619</v>
       </c>
       <c r="D90">
-        <v>-0.2623341004594733</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2650756850896985</v>
+      </c>
+      <c r="E90">
+        <v>-0.1167232393750882</v>
+      </c>
+      <c r="F90">
+        <v>-0.008001422785811257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1250696999069036</v>
+        <v>0.1212913582224174</v>
       </c>
       <c r="C91">
-        <v>-0.0255875280055988</v>
+        <v>-0.02432490097606306</v>
       </c>
       <c r="D91">
-        <v>-0.018671354397875</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01358762156178767</v>
+      </c>
+      <c r="E91">
+        <v>0.05771213757449874</v>
+      </c>
+      <c r="F91">
+        <v>0.0149706076920657</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1442866930460047</v>
+        <v>0.15025762725221</v>
       </c>
       <c r="C92">
-        <v>-0.02386947248638058</v>
+        <v>-0.03139503296559234</v>
       </c>
       <c r="D92">
-        <v>-0.2892086696023117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2899196175188335</v>
+      </c>
+      <c r="E92">
+        <v>-0.1055042032555367</v>
+      </c>
+      <c r="F92">
+        <v>0.007273609187798765</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1486651781611699</v>
+        <v>0.159858275517305</v>
       </c>
       <c r="C93">
-        <v>-0.02941937674852877</v>
+        <v>-0.03562067983189837</v>
       </c>
       <c r="D93">
-        <v>-0.2591550170063682</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.258386232585193</v>
+      </c>
+      <c r="E93">
+        <v>-0.07096624567141471</v>
+      </c>
+      <c r="F93">
+        <v>-0.0131552465059874</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.130901535668668</v>
+        <v>0.1232418388135348</v>
       </c>
       <c r="C94">
-        <v>-0.03082339722045745</v>
+        <v>-0.02718165326759864</v>
       </c>
       <c r="D94">
-        <v>0.04152974608797058</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04564576649154577</v>
+      </c>
+      <c r="E94">
+        <v>0.06410286256389103</v>
+      </c>
+      <c r="F94">
+        <v>-0.02284217057766768</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1266974128874844</v>
+        <v>0.1291942419046166</v>
       </c>
       <c r="C95">
-        <v>-0.01279828300407729</v>
+        <v>-0.007266490944808369</v>
       </c>
       <c r="D95">
-        <v>0.08944338959046283</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1007292033522754</v>
+      </c>
+      <c r="E95">
+        <v>0.06293150880907625</v>
+      </c>
+      <c r="F95">
+        <v>0.03164184218553392</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1532354216729862</v>
+        <v>0.1393511956064702</v>
       </c>
       <c r="C96">
-        <v>0.982339401264804</v>
+        <v>0.9832967265614513</v>
       </c>
       <c r="D96">
-        <v>-0.02793033913086561</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.0550368254398008</v>
+      </c>
+      <c r="E96">
+        <v>0.05358754873944654</v>
+      </c>
+      <c r="F96">
+        <v>-0.04298577314968854</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1889625706336629</v>
+        <v>0.193051896807747</v>
       </c>
       <c r="C97">
-        <v>-0.001817803607010715</v>
+        <v>-0.0002509422039985714</v>
       </c>
       <c r="D97">
-        <v>-0.02341471903322485</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02749495046211574</v>
+      </c>
+      <c r="E97">
+        <v>0.01874770183947427</v>
+      </c>
+      <c r="F97">
+        <v>0.1801737244843937</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1951298736071351</v>
+        <v>0.2011998066723849</v>
       </c>
       <c r="C98">
-        <v>-0.01602384926927224</v>
+        <v>-0.01108740582964586</v>
       </c>
       <c r="D98">
-        <v>0.006317109258418219</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.009595638144603459</v>
+      </c>
+      <c r="E98">
+        <v>-0.08815088161009217</v>
+      </c>
+      <c r="F98">
+        <v>0.07254796696293025</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05768361452369643</v>
+        <v>0.05725826276612343</v>
       </c>
       <c r="C99">
-        <v>0.000311229297057168</v>
+        <v>0.002440229892989369</v>
       </c>
       <c r="D99">
-        <v>0.03874035239693141</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04384055932907578</v>
+      </c>
+      <c r="E99">
+        <v>0.02619844240249708</v>
+      </c>
+      <c r="F99">
+        <v>0.01117797297433515</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1473357424398485</v>
+        <v>0.1347811999486606</v>
       </c>
       <c r="C100">
-        <v>0.03493465169324923</v>
+        <v>0.04649343939928128</v>
       </c>
       <c r="D100">
-        <v>0.3975385436236616</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3616342988298644</v>
+      </c>
+      <c r="E100">
+        <v>-0.8933380564122341</v>
+      </c>
+      <c r="F100">
+        <v>0.01693627471345271</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0258059162334663</v>
+        <v>0.02793283600282493</v>
       </c>
       <c r="C101">
-        <v>-0.009932530844993039</v>
+        <v>-0.009231094787798126</v>
       </c>
       <c r="D101">
-        <v>0.03050637287340488</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03050884134603994</v>
+      </c>
+      <c r="E101">
+        <v>0.01610055677273723</v>
+      </c>
+      <c r="F101">
+        <v>0.02806386419723756</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
